--- a/Taller3/data/usersData.xlsx
+++ b/Taller3/data/usersData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\eclipse-workspace\Taller3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Desktop\SemilleroQA\Talleres\Taller3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,12 +32,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>Cristian Camilo</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Panipat</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,54 +417,54 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
